--- a/data-files/vopmembership_data_unittest.xlsx
+++ b/data-files/vopmembership_data_unittest.xlsx
@@ -1373,7 +1373,7 @@
       </c>
       <c r="N2" s="2" t="inlineStr">
         <is>
-          <t>05/12/2023 at 15:33</t>
+          <t>05/12/2023 at 15:44</t>
         </is>
       </c>
     </row>
